--- a/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Genesys International Corporation Ltd/Pruned_Excel/Pruned_Profit-loss_combined.xlsx
+++ b/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Genesys International Corporation Ltd/Pruned_Excel/Pruned_Profit-loss_combined.xlsx
@@ -633,16 +633,16 @@
         <v>-0.48</v>
       </c>
       <c r="O2">
-        <v>3.239333333333334</v>
+        <v>3.24</v>
       </c>
       <c r="P2">
-        <v>-0.1873333333333334</v>
+        <v>-0.19</v>
       </c>
       <c r="Q2">
-        <v>0.016</v>
+        <v>0.02</v>
       </c>
       <c r="R2">
-        <v>2.445789473684211</v>
+        <v>2.45</v>
       </c>
       <c r="S2">
         <v>-0.48</v>
@@ -660,7 +660,7 @@
         <v>-0.44</v>
       </c>
       <c r="X2">
-        <v>1.606923076923077</v>
+        <v>1.61</v>
       </c>
       <c r="Y2">
         <v>11.5</v>
@@ -710,13 +710,13 @@
         <v>-0.15</v>
       </c>
       <c r="O3">
-        <v>3.239333333333334</v>
+        <v>3.24</v>
       </c>
       <c r="P3">
-        <v>-0.1873333333333334</v>
+        <v>-0.19</v>
       </c>
       <c r="Q3">
-        <v>0.016</v>
+        <v>0.02</v>
       </c>
       <c r="R3">
         <v>0.11</v>
@@ -737,7 +737,7 @@
         <v>0.15</v>
       </c>
       <c r="X3">
-        <v>1.606923076923077</v>
+        <v>1.61</v>
       </c>
       <c r="Y3">
         <v>11.5</v>
@@ -787,13 +787,13 @@
         <v>2.19</v>
       </c>
       <c r="O4">
-        <v>3.239333333333334</v>
+        <v>3.24</v>
       </c>
       <c r="P4">
-        <v>-0.1873333333333334</v>
+        <v>-0.19</v>
       </c>
       <c r="Q4">
-        <v>0.016</v>
+        <v>0.02</v>
       </c>
       <c r="R4">
         <v>0.12</v>
@@ -814,7 +814,7 @@
         <v>-4.11</v>
       </c>
       <c r="X4">
-        <v>1.606923076923077</v>
+        <v>1.61</v>
       </c>
       <c r="Y4">
         <v>11.5</v>
@@ -867,10 +867,10 @@
         <v>0.51</v>
       </c>
       <c r="P5">
-        <v>-0.1873333333333334</v>
+        <v>-0.19</v>
       </c>
       <c r="Q5">
-        <v>0.016</v>
+        <v>0.02</v>
       </c>
       <c r="R5">
         <v>0.64</v>
@@ -947,7 +947,7 @@
         <v>-1.4</v>
       </c>
       <c r="Q6">
-        <v>0.016</v>
+        <v>0.02</v>
       </c>
       <c r="R6">
         <v>-0.37</v>
@@ -1024,7 +1024,7 @@
         <v>0.85</v>
       </c>
       <c r="Q7">
-        <v>0.016</v>
+        <v>0.02</v>
       </c>
       <c r="R7">
         <v>4.83</v>
@@ -1178,7 +1178,7 @@
         <v>-0.45</v>
       </c>
       <c r="Q9">
-        <v>0.016</v>
+        <v>0.02</v>
       </c>
       <c r="R9">
         <v>1.95</v>
@@ -1329,7 +1329,7 @@
         <v>1.73</v>
       </c>
       <c r="P11">
-        <v>-0.1873333333333334</v>
+        <v>-0.19</v>
       </c>
       <c r="Q11">
         <v>0.03</v>
@@ -1409,7 +1409,7 @@
         <v>-0.46</v>
       </c>
       <c r="Q12">
-        <v>0.016</v>
+        <v>0.02</v>
       </c>
       <c r="R12">
         <v>0.57</v>
@@ -1557,7 +1557,7 @@
         <v>21.17</v>
       </c>
       <c r="O14">
-        <v>3.239333333333334</v>
+        <v>3.24</v>
       </c>
       <c r="P14">
         <v>-1.9</v>
@@ -1794,7 +1794,7 @@
         <v>-2.23</v>
       </c>
       <c r="Q17">
-        <v>0.016</v>
+        <v>0.02</v>
       </c>
       <c r="R17">
         <v>-1.54</v>
@@ -1865,7 +1865,7 @@
         <v>-39.98</v>
       </c>
       <c r="O18">
-        <v>3.239333333333334</v>
+        <v>3.24</v>
       </c>
       <c r="P18">
         <v>-2.94</v>
@@ -1892,7 +1892,7 @@
         <v>-11.6</v>
       </c>
       <c r="X18">
-        <v>1.606923076923077</v>
+        <v>1.61</v>
       </c>
       <c r="Y18">
         <v>11.5</v>
@@ -1948,7 +1948,7 @@
         <v>1.31</v>
       </c>
       <c r="Q19">
-        <v>0.016</v>
+        <v>0.02</v>
       </c>
       <c r="R19">
         <v>3.81</v>
@@ -1969,7 +1969,7 @@
         <v>-25.01</v>
       </c>
       <c r="X19">
-        <v>1.606923076923077</v>
+        <v>1.61</v>
       </c>
       <c r="Y19">
         <v>11.5</v>
@@ -2046,7 +2046,7 @@
         <v>10.65</v>
       </c>
       <c r="X20">
-        <v>1.606923076923077</v>
+        <v>1.61</v>
       </c>
       <c r="Y20">
         <v>11.5</v>
@@ -2123,7 +2123,7 @@
         <v>11.75</v>
       </c>
       <c r="X21">
-        <v>1.606923076923077</v>
+        <v>1.61</v>
       </c>
       <c r="Y21">
         <v>11.5</v>
